--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,9 +2035,469 @@
         <v>2026-02-06T01:01:30.801Z</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/our-view-minister-should-not-have-bowed-to-pressure-over-phedonos</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Our View: Minister should not have bowed to pressure over Phedonos</v>
+      </c>
+      <c r="D72" t="str">
+        <v>部长不应屈服于Phedonos事件的压力，这引发了对政府独立性的质疑。</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G72" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://www.rt.com/news/632081-un-concerned-cuba-blockade/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C73" t="str">
+        <v>US blockade threatens ‘humanitarian collapse’ in Cuba – UN chief</v>
+      </c>
+      <c r="D73" t="str">
+        <v>联合国秘书长警告，美国对古巴的封锁可能导致古巴出现“人道主义崩溃”。</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G73" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://www.zerohedge.com/political/new-york-city-joins-whos-global-outbreak-response-network-after-us-exit</v>
+      </c>
+      <c r="C74" t="str">
+        <v>New York City Joins WHO's Global Outbreak Response Network After US Exit</v>
+      </c>
+      <c r="D74" t="str">
+        <v>美国退出后，纽约市加入世卫组织全球疫情应对网络，加强国际合作。</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G74" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://www.defensenews.com/global/europe/2026/02/05/trump-calls-for-new-nuclear-pact-as-us-russia-treaty-expires/</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Trump calls for new nuclear pact as US-Russia treaty expires</v>
+      </c>
+      <c r="D75" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E75" t="str">
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G75" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://www.militarytimes.com/global/europe/2026/02/05/trump-calls-for-new-nuclear-pact-as-us-russia-treaty-expires/</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Trump calls for new nuclear pact as US-Russia treaty expires</v>
+      </c>
+      <c r="D76" t="str">
+        <v>特朗普呼吁在美俄核武器条约到期后达成新的核协议，旨在限制核武器扩散。</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G76" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://www.twz.com/nuclear/what-the-sunset-of-key-u-s-russia-nuclear-deal-could-mean-for-americas-stockpile</v>
+      </c>
+      <c r="C77" t="str">
+        <v>What The Sunset Of Key U.S.-Russia Nuclear Deal Could Mean For America’s Stockpile</v>
+      </c>
+      <c r="D77" t="str">
+        <v>美俄关键核协议可能失效，或影响美国核武库规模和战略，增加不确定性。</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G77" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://www.rt.com/news/632077-trump-extending-new-start-treaty/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Trump comments on extending New START treaty</v>
+      </c>
+      <c r="D78" t="str">
+        <v>特朗普就延长《新削减战略武器条约》发表评论，该条约对美俄核武库构成限制。</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G78" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://www.defensenews.com/global/europe/2026/02/05/us-and-russia-agree-to-reestablish-military-dialogue-after-ukraine-talks/</v>
+      </c>
+      <c r="C79" t="str">
+        <v>US and Russia agree to reestablish military dialogue after Ukraine talks</v>
+      </c>
+      <c r="D79" t="str">
+        <v>美俄同意在乌克兰会谈后重建军事对话，旨在降低冲突风险，稳定局势。</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G79" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://www.militarytimes.com/global/europe/2026/02/05/us-and-russia-agree-to-reestablish-military-dialogue-after-ukraine-talks/</v>
+      </c>
+      <c r="C80" t="str">
+        <v>US and Russia agree to reestablish military dialogue after Ukraine talks</v>
+      </c>
+      <c r="D80" t="str">
+        <v>美俄同意在乌克兰会谈后重建军事对话，旨在降低冲突风险，稳定局势。</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G80" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/05/iran-is-betting-that-trump-does-not-have-a-plan-for-regime-change</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Iran is betting that Trump does not have a plan for regime change</v>
+      </c>
+      <c r="D81" t="str">
+        <v>伊朗认为特朗普政府没有推翻伊朗政权的实际计划，并以此为基础制定策略。</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G81" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/turkey-is-doing-its-best-to-prevent-us-iran-conflict-erdogan-says</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Turkey is doing its best to prevent US-Iran conflict, Erdogan says</v>
+      </c>
+      <c r="D82" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E82" t="str">
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G82" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://in-cyprus.philenews.com/local/police-inform-military-bullets-larnaca-hospital-toilets/</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Authorities inform military over bullets found in Larnaca Hospital toilets</v>
+      </c>
+      <c r="D83" t="str">
+        <v>拉纳卡医院厕所发现子弹，当局已通知军方，原因和潜在威胁不明。</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G83" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/cyprus-represented-at-kuwait-talks-on-global-digital-cooperation</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Cyprus represented at Kuwait talks on digital prosperity</v>
+      </c>
+      <c r="D84" t="str">
+        <v>塞浦路斯参加科威特关于数字繁荣的会谈，旨在促进数字经济发展和合作。</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G84" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://www.militarytimes.com/news/your-military/2026/02/04/us-military-conducts-strikes-on-islamic-state-members-in-syria/</v>
+      </c>
+      <c r="C85" t="str">
+        <v>US military conducts strikes on Islamic State members in Syria</v>
+      </c>
+      <c r="D85" t="str">
+        <v>美军在叙利亚对伊斯兰国成员发动了袭击，旨在削弱该组织的活动能力。</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G85" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://www.bloomberg.com/news/articles/2026-02-04/us-military-hits-islamic-state-targets-in-syria-over-past-week</v>
+      </c>
+      <c r="C86" t="str">
+        <v>US Military Hits Islamic State Targets in Syria Over Past Week</v>
+      </c>
+      <c r="D86" t="str">
+        <v>美军过去一周在叙利亚打击了伊斯兰国目标，表明美国仍在关注并打击该地区的恐怖主义。</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G86" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/israel-suspends-evacuation-of-palestinians-via-rafah-crossing-red-crescent?traffic_source=rss</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Israeli attacks on Gaza kill 20 in one of deadliest days since ‘ceasefire’</v>
+      </c>
+      <c r="D87" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E87" t="str">
+        <v/>
+      </c>
+      <c r="F87" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G87" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/greece-woos-israel-for-joint-production-of-weapons-systems?traffic_source=rss</v>
+      </c>
+      <c r="C88" t="str">
+        <v>‘Heavily armed’: Greece, Israel boost military ties amid Gaza genocide</v>
+      </c>
+      <c r="D88" t="str">
+        <v>在加沙冲突背景下，希腊和以色列加强军事合作，提升两国军事实力。</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G88" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://www.theguardian.com/australia-news/2026/feb/04/israel-president-isaac-herzog-visit-labor-backbenchers</v>
+      </c>
+      <c r="C89" t="str">
+        <v>NSW Labor backbenchers to protest Israel president Isaac Herzog’s visit in defiance of premier</v>
+      </c>
+      <c r="D89" t="str">
+        <v>新南威尔士州工党后座议员将抗议以色列总统伊萨克·赫尔佐格的访问，无视州长的意见。</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G89" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://in-cyprus.philenews.com/international/turkey-aggressively-pursues-blue-homeland-goals-amid-regional-shifts/</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Turkey aggressively pursues “Blue Homeland” goals amid regional shifts</v>
+      </c>
+      <c r="D90" t="str">
+        <v>土耳其在地缘政治变动中积极推行“蓝色家园”战略，加剧地区紧张局势。</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G90" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://cyprus-mail.com/2026/01/04/more-than-30000-tonnes-of-aid-delivered-to-gaza-through-cyprus-amalthea-plan</v>
+      </c>
+      <c r="C91" t="str">
+        <v>‘More than 30,000 tonnes’ of aid delivered to Gaza through Cyprus’ Amalthea plan</v>
+      </c>
+      <c r="D91" t="str">
+        <v>通过塞浦路斯Amalthea计划，超过3万吨援助物资已运抵加沙，旨在缓解当地人道主义危机。</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G91" t="str">
+        <v>2026-02-06T04:05:18.118Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2495,9 +2495,101 @@
         <v>2026-02-06T04:05:18.118Z</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B92" t="str">
+        <v>https://www.theguardian.com/world/ng-interactive/2026/feb/06/the-russian-economy-is-finally-stagnating-what-does-it-mean-for-the-war-and-for-putin</v>
+      </c>
+      <c r="C92" t="str">
+        <v>The Russian economy is finally stagnating. What does it mean for the war – and for Putin?</v>
+      </c>
+      <c r="D92" t="str">
+        <v>俄罗斯经济停滞可能削弱其战争能力和普京的政治地位，但影响程度尚待观察。</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G92" t="str">
+        <v>2026-02-06T06:38:49.220Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B93" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/trump-rejects-putin-offer-of-one-year-extension-of-new-start-deployment-limits</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Trump rejects Putin offer of one-year extension of New START deployment limits</v>
+      </c>
+      <c r="D93" t="str">
+        <v>特朗普拒绝普京关于延长一年《新削减战略武器条约》部署限制的提议，该条约对美俄核武库构成约束。</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G93" t="str">
+        <v>2026-02-06T06:38:49.220Z</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B94" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/iran-us-to-negotiate-in-oman-amid-deep-rifts-and-mounting-war-fears</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Iran, US to negotiate in Oman amid deep rifts and mounting war fears</v>
+      </c>
+      <c r="D94" t="str">
+        <v>伊朗和美国将在阿曼进行谈判，正值两国关系紧张和战争担忧加剧之际。</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G94" t="str">
+        <v>2026-02-06T06:38:49.220Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B95" t="str">
+        <v>https://www.zerohedge.com/geopolitical/why-greenland-center-shifting-global-order</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Why Greenland Is At The Center Of A Shifting Global Order</v>
+      </c>
+      <c r="D95" t="str">
+        <v>格陵兰岛因其战略地位和资源，在全球地缘政治和气候变化中扮演日益重要的角色，影响着全球秩序的重塑。</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G95" t="str">
+        <v>2026-02-06T06:38:49.220Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G95"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2587,9 +2587,124 @@
         <v>2026-02-06T06:38:49.220Z</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B96" t="str">
+        <v>https://www.defensenews.com/global/europe/2026/02/06/french-navy-dials-up-stress-level-in-crew-drills-after-red-sea-experience/</v>
+      </c>
+      <c r="C96" t="str">
+        <v>French Navy dials up stress level in crew drills after Red Sea experience</v>
+      </c>
+      <c r="D96" t="str">
+        <v>法国海军因红海经验，加强船员训练，提升应对高压环境能力，以应对未来潜在威胁。</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G96" t="str">
+        <v>2026-02-06T10:28:44.999Z</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B97" t="str">
+        <v>https://in-cyprus.philenews.com/international/on-this-day-elizabeth-ii-is-proclaimed-queen-of-the-united-kingdom-in-1952/</v>
+      </c>
+      <c r="C97" t="str">
+        <v>On this day: Elizabeth II is proclaimed Queen of the United Kingdom in 1952</v>
+      </c>
+      <c r="D97" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E97" t="str">
+        <v/>
+      </c>
+      <c r="F97" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G97" t="str">
+        <v>2026-02-06T10:28:44.999Z</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B98" t="str">
+        <v>https://www.rt.com/africa/632091-kiev-regime-supplying-terrorists-africa/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Kiev regime supplying terrorists in Africa – Russia’s UN envoy</v>
+      </c>
+      <c r="D98" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E98" t="str">
+        <v/>
+      </c>
+      <c r="F98" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G98" t="str">
+        <v>2026-02-06T10:28:44.999Z</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B99" t="str">
+        <v>https://www.scmp.com/news/china/politics/article/3342648/hainan-official-who-played-key-role-building-south-china-sea-reefs-faces-corruption-probe?utm_source=rss_feed</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Hainan official who played key role building South China Sea reefs faces corruption probe</v>
+      </c>
+      <c r="D99" t="str">
+        <v>海南官员因在南海岛礁建设中发挥关键作用而面临腐败调查，可能影响南海战略布局。</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G99" t="str">
+        <v>2026-02-06T10:28:44.999Z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B100" t="str">
+        <v>https://www.defensenews.com/global/asia-pacific/2026/02/06/first-us-warship-visit-to-chinese-built-port-in-cambodia-cements-new-drift-for-phnom-penh/</v>
+      </c>
+      <c r="C100" t="str">
+        <v>First US warship visit to Chinese-built port in Cambodia cements new drift for Phnom Penh</v>
+      </c>
+      <c r="D100" t="str">
+        <v>美国军舰首次访问中国在柬埔寨建造的港口，标志着金边方面出现新的动向，可能影响地区力量平衡。</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G100" t="str">
+        <v>2026-02-06T10:28:44.999Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G95"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2702,9 +2702,331 @@
         <v>2026-02-06T10:28:44.999Z</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B101" t="str">
+        <v>https://www.rbi.org.in/scripts/BS_PressReleaseDisplay.aspx?prid=62169</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Monetary Policy Statement, 2025-26 Resolution of the Monetary Policy Committee February 4 to 6, 2026</v>
+      </c>
+      <c r="D101" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E101" t="str">
+        <v/>
+      </c>
+      <c r="F101" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G101" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B102" t="str">
+        <v>https://www.rt.com/india/632084-new-world-order-tilting-towards/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C102" t="str">
+        <v>New world order tilting towards India – Modi</v>
+      </c>
+      <c r="D102" t="str">
+        <v>莫迪宣称世界新秩序正向印度倾斜，暗示印度在全球影响力日益增强。</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G102" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B103" t="str">
+        <v>https://www.rt.com/india/632084-new-world-order-tilting-towards/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C103" t="str">
+        <v>New world order tilting towards India – Modi</v>
+      </c>
+      <c r="D103" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E103" t="str">
+        <v/>
+      </c>
+      <c r="F103" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G103" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B104" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/cyprus-business-news-eurobank-digital-prosperity-tourism-cbc-housing</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Cyprus Business News: Eurobank, digital prosperity, tourism, CBC, housing</v>
+      </c>
+      <c r="D104" t="str">
+        <v>塞浦路斯商业新闻涵盖Eurobank业务、数字经济发展、旅游业、央行政策和住房市场等议题。</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G104" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B105" t="str">
+        <v>https://www.rbi.org.in/scripts/BS_PressReleaseDisplay.aspx?prid=62176</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Reserve Bank of India – Bulletin Weekly Statistical Supplement – Extract</v>
+      </c>
+      <c r="D105" t="str">
+        <v>印度储备银行发布每周统计补充公告，提供关键经济指标更新，反映印度金融状况。</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G105" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B106" t="str">
+        <v>https://finance.yahoo.com/news/top-chart-experts-deep-dive-024034813.html</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Our Top Chart Expert's Deep Dive on the US Dollar Breakdown, and Does Gold Have a Path to $10K?</v>
+      </c>
+      <c r="D106" t="str">
+        <v>美元走弱，黄金价格或将飙升至1万美元？专家深度分析美元崩盘及黄金前景。</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G106" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B107" t="str">
+        <v>https://www.bbc.com/news/articles/cly3ygj7189o?at_medium=RSS&amp;at_campaign=rss</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Pandora to switch from silver to platinum over price surge</v>
+      </c>
+      <c r="D107" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E107" t="str">
+        <v/>
+      </c>
+      <c r="F107" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G107" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B108" t="str">
+        <v>https://www.rt.com/news/632093-brussels-dependency-energy-russia/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Brussels’ dependency dilemma: The EU is a victim of its own energy arrogance</v>
+      </c>
+      <c r="D108" t="str">
+        <v>欧盟因能源自负而陷入依赖困境，过度自信导致能源政策失误，加剧对外部供应的依赖。</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G108" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B109" t="str">
+        <v>https://www.rt.com/news/632093-brussels-dependency-energy-russia/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Brussels’ dependency dilemma: The EU is a victim of its own energy arrogance</v>
+      </c>
+      <c r="D109" t="str">
+        <v>欧盟因能源自负而陷入对外部能源依赖的困境，面临战略脆弱性。</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G109" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B110" t="str">
+        <v>https://www.rt.com/news/632093-brussels-dependency-energy-russia/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Brussels’ dependency dilemma: The EU is a victim of its own energy arrogance</v>
+      </c>
+      <c r="D110" t="str">
+        <v>欧盟因能源自负而过度依赖外部供应，面临能源安全困境，需重新评估能源政策。</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G110" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B111" t="str">
+        <v>https://www.rt.com/news/632093-brussels-dependency-energy-russia/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Brussels’ dependency dilemma: The EU is a victim of its own energy arrogance</v>
+      </c>
+      <c r="D111" t="str">
+        <v>欧盟因能源自负自大而陷入对外部能源依赖的困境，面临战略挑战。</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G111" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B112" t="str">
+        <v>https://www.zerohedge.com/geopolitical/trump-extends-african-free-trade-agreement-easing-tariff-fears-amid-tensions</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Trump Extends African Free-Trade Agreement Easing Tariff Fears Amid Tensions</v>
+      </c>
+      <c r="D112" t="str">
+        <v>特朗普延长了与非洲的自由贸易协定，缓解了贸易紧张局势下的关税担忧。</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G112" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B113" t="str">
+        <v>https://www.zerohedge.com/geopolitical/trump-extends-african-free-trade-agreement-easing-tariff-fears-amid-tensions</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Trump Extends African Free-Trade Agreement Easing Tariff Fears Amid Tensions</v>
+      </c>
+      <c r="D113" t="str">
+        <v>特朗普延长了与非洲的自由贸易协定，缓解了贸易紧张局势下的关税担忧。</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G113" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B114" t="str">
+        <v>https://www.zerohedge.com/geopolitical/trump-extends-african-free-trade-agreement-easing-tariff-fears-amid-tensions</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Trump Extends African Free-Trade Agreement Easing Tariff Fears Amid Tensions</v>
+      </c>
+      <c r="D114" t="str">
+        <v>特朗普延长了与非洲的自由贸易协定，缓解了贸易紧张局势，但具体细节未知。</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G114" t="str">
+        <v>2026-02-06T12:29:59.700Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G114"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3024,9 +3024,55 @@
         <v>2026-02-06T12:29:59.700Z</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B115" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/annie-alexui-i-would-only-return-to-cyprus-if-people-i-trust-in-russia-asked-me-to</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Annie Alexui: I would only return to Cyprus if people I trust in Russia asked me to</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Annie Alexui表示，只有在俄罗斯信任的人要求下才会返回塞浦路斯，暗示其与俄罗斯关系及对塞浦路斯局势的担忧。</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G115" t="str">
+        <v>2026-02-06T12:31:33.303Z</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B116" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/iran-us-hold-pivotal-talks-in-oman-as-confrontation-looms</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Iran, US hold pivotal talks in Oman as confrontation looms</v>
+      </c>
+      <c r="D116" t="str">
+        <v>伊朗和美国在阿曼举行关键会谈，旨在缓和日益逼近的对抗，避免冲突升级。</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G116" t="str">
+        <v>2026-02-06T12:31:33.303Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G114"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3070,9 +3070,55 @@
         <v>2026-02-06T12:31:33.303Z</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B117" t="str">
+        <v>https://www.rt.com/russia/632098-peskov-talks-ukraine-constructive/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Kremlin comments on ‘constructive’ Abu Dhabi talks</v>
+      </c>
+      <c r="D117" t="str">
+        <v>克里姆林宫称阿布扎比会谈具有“建设性”，但具体内容未知。</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G117" t="str">
+        <v>2026-02-06T14:33:35.845Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B118" t="str">
+        <v>https://www.rt.com/news/632092-why-washington-may-test-iran/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Why Washington may test Iran, and live to regret It</v>
+      </c>
+      <c r="D118" t="str">
+        <v>华盛顿可能试探伊朗底线，但此举或将引发难以预料的严重后果，地区局势或将升级。</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G118" t="str">
+        <v>2026-02-06T14:33:35.845Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G118"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3116,9 +3116,32 @@
         <v>2026-02-06T14:33:35.845Z</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B119" t="str">
+        <v>https://www.bbc.com/news/videos/c4gvg772vv6o?at_medium=RSS&amp;at_campaign=rss</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Watch: Ukrainian soldier thought to be dead calls his family</v>
+      </c>
+      <c r="D119" t="str">
+        <v>一名乌克兰士兵在被认为阵亡后致电家人，表明他仍然活着，这反映了战争中信息的不确定性和失实。</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G119" t="str">
+        <v>2026-02-06T16:30:51.102Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G119"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3139,9 +3139,32 @@
         <v>2026-02-06T16:30:51.102Z</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B120" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/uk-police-search-properties-in-probe-into-mandelson-over-epstein-ties</v>
+      </c>
+      <c r="C120" t="str">
+        <v>UK police search properties in probe into Mandelson over Epstein ties</v>
+      </c>
+      <c r="D120" t="str">
+        <v>英国警方搜查与曼德尔森有关的房产，调查其与爱泼斯坦的关系。</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G120" t="str">
+        <v>2026-02-06T18:32:02.658Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G120"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3162,9 +3162,101 @@
         <v>2026-02-06T18:32:02.658Z</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B121" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/russian-intelligence-official-shot-and-wounded-in-moscow</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Russian intelligence official shot and wounded in Moscow</v>
+      </c>
+      <c r="D121" t="str">
+        <v>一名俄罗斯情报官员在莫斯科遭枪击受伤，事件原因和影响不明。</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G121" t="str">
+        <v>2026-02-06T20:20:56.407Z</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B122" t="str">
+        <v>https://www.ft.com/content/34c80766-86c6-4637-bc0d-aca587ee8baf</v>
+      </c>
+      <c r="C122" t="str">
+        <v>EU pushes for full ban on services tied to Russia’s oil trade</v>
+      </c>
+      <c r="D122" t="str">
+        <v>欧盟正推动全面禁止与俄罗斯石油贸易相关的服务，旨在进一步削弱俄罗斯的石油收入。</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G122" t="str">
+        <v>2026-02-06T20:20:56.407Z</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B123" t="str">
+        <v>https://www.rt.com/russia/632132-zelensky-criticize-ukraine-air-force/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Zelensky criticizes Ukrainian Air Force</v>
+      </c>
+      <c r="D123" t="str">
+        <v>泽连斯基公开批评乌克兰空军，可能涉及战术策略或资源分配问题。</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G123" t="str">
+        <v>2026-02-06T20:20:56.407Z</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B124" t="str">
+        <v>https://www.rt.com/news/632128-eu-theft-private-russian-cars/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C124" t="str">
+        <v>EU court approves state theft of private cars bought in Russia</v>
+      </c>
+      <c r="D124" t="str">
+        <v>欧盟法院批准成员国没收在俄罗斯购买的私家车，引发对财产权和法律公正性的担忧。</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G124" t="str">
+        <v>2026-02-06T20:20:56.407Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G120"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G124"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-06.xlsx
+++ b/data/news_2026-02-06.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3254,9 +3254,78 @@
         <v>2026-02-06T20:20:56.407Z</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B125" t="str">
+        <v>https://www.marketwatch.com/story/oil-markets-are-on-edge-over-elevated-risks-of-a-u-s-military-strike-against-iran-this-weekend-ead5d7d2?mod=mw_rss_topstories</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Oil markets are on edge over elevated risks of a U.S. military strike against Iran this weekend</v>
+      </c>
+      <c r="D125" t="str">
+        <v>美国可能对伊朗发动军事打击的风险加剧，导致石油市场紧张不安，未来走势面临不确定性。</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G125" t="str">
+        <v>2026-02-06T22:11:16.646Z</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B126" t="str">
+        <v>https://www.militarytimes.com/global/asia-pacific/2026/02/06/first-us-warship-visit-to-chinese-built-port-in-cambodia-cements-new-drift-for-phnom-penh/</v>
+      </c>
+      <c r="C126" t="str">
+        <v>First US warship visit to Chinese-built port in Cambodia cements new drift for Phnom Penh</v>
+      </c>
+      <c r="D126" t="str">
+        <v>美国军舰首次访问中国在柬埔寨建造的港口，表明金边方面出现新的外交转向，可能影响地区力量平衡。</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G126" t="str">
+        <v>2026-02-06T22:11:16.646Z</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B127" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/iran-says-talks-with-us-in-oman-were-good-start-will-continue</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Iran says talks with US in Oman were ‘good start’, will continue</v>
+      </c>
+      <c r="D127" t="str">
+        <v>伊朗称与美国在阿曼的会谈是“良好的开端”，并将继续进行，表明双方可能寻求缓和紧张关系。</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G127" t="str">
+        <v>2026-02-06T22:11:16.646Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G124"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G127"/>
   </ignoredErrors>
 </worksheet>
 </file>